--- a/assets/static/student_example.xlsx
+++ b/assets/static/student_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshcrawmer/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E50946-2593-3749-A50C-31CBD65D4359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB8D01-F7F2-D440-942F-9E0762B2A5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F013B0DF-93E5-ED44-8A85-F2C7596521C4}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <t>Graduating Year</t>
   </si>
   <si>
-    <t>Educator Id</t>
+    <t>Educator Number</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/static/student_example.xlsx
+++ b/assets/static/student_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshcrawmer/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshcrawmer/Desktop/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB8D01-F7F2-D440-942F-9E0762B2A5B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58688FE-463A-D54C-91AB-E9475BE56DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F013B0DF-93E5-ED44-8A85-F2C7596521C4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -41,28 +41,37 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>user one first name</t>
-  </si>
-  <si>
-    <t>user one last name</t>
-  </si>
-  <si>
-    <t>user two first name</t>
-  </si>
-  <si>
-    <t>user two last name</t>
-  </si>
-  <si>
-    <t>user three first name</t>
-  </si>
-  <si>
-    <t>user three last name</t>
-  </si>
-  <si>
     <t>Graduating Year</t>
   </si>
   <si>
-    <t>Educator Number</t>
+    <t>Educator Email</t>
+  </si>
+  <si>
+    <t>educator1@some-school.org</t>
+  </si>
+  <si>
+    <t>educator2@some-school.org</t>
+  </si>
+  <si>
+    <t>educator3@some-school.org</t>
+  </si>
+  <si>
+    <t>student one first name</t>
+  </si>
+  <si>
+    <t>student two first name</t>
+  </si>
+  <si>
+    <t>student three first name</t>
+  </si>
+  <si>
+    <t>student one last name</t>
+  </si>
+  <si>
+    <t>student two last name</t>
+  </si>
+  <si>
+    <t>student three last name</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,55 +450,60 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2022</v>
       </c>
-      <c r="D2">
-        <v>502</v>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2022</v>
       </c>
-      <c r="D3">
-        <v>502</v>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>2023</v>
       </c>
-      <c r="D4">
-        <v>503</v>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A1C53D7B-BACF-E04A-818D-2904856B9441}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{7235E324-EFE9-5046-A196-23CE22C777D0}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{14B6DFCE-8BFC-4141-9057-81861B19948F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>